--- a/app/training/tchebycheff.xlsx
+++ b/app/training/tchebycheff.xlsx
@@ -22,25 +22,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
-    <t xml:space="preserve">Unit Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock Out Effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standar_Deviasi</t>
+    <t xml:space="preserve">Material Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga Barang (p) /Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerugian Ketidakadaan Barang (Cu) /Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standar Deviasi Permintaan Barang (s)</t>
   </si>
   <si>
     <t xml:space="preserve">Rata_Rata/Bulan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC Indicator</t>
   </si>
   <si>
     <t xml:space="preserve">BOLT,MACHINE:5/8IN UNCX47MM;HEX;B7;GALV</t>
@@ -150,16 +150,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,213 +187,216 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="45.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>6072053</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>1000000</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>3720000000</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="E2" s="1" t="n">
+        <v>3720000000</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>32.52691193</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>6072053</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>6056316</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>26000</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>3720000000</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="E3" s="1" t="n">
+        <v>3720000000</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>8.76356092</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>9.6</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>6056316</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>6031711</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>17820</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>3720000000</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="E4" s="1" t="n">
+        <v>3720000000</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>80.49563447</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>1117.2875</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>6031711</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>6060067</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>49100</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>3720000000</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="E5" s="1" t="n">
+        <v>3720000000</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>123.5718192</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>843.6375</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>6060067</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>6163902</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>16380</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>3720000000</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="E6" s="1" t="n">
+        <v>3720000000</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>322.3592923</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>834.8125</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>6163902</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6131451</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>28000000</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>3720000000</v>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="E7" s="1" t="n">
+        <v>3720000000</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>2095698934</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>1041666667</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>6131451</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6127468</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>14595027</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>3720000000</v>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="E8" s="1" t="n">
+        <v>3720000000</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>1834021909</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>6127468</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>6049716</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>170775000</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>3720000000</v>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="E9" s="1" t="n">
+        <v>3720000000</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>316227766</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>125</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>6049716</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
